--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="640">
   <si>
     <t>Property</t>
   </si>
@@ -982,6 +982,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1040,6 +1043,39 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode</t>
+  </si>
+  <si>
+    <t>BodyWeightSnomedCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.code</t>
+  </si>
+  <si>
+    <t>27113001</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightSnomedCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1212,7 +1248,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">type:type}
 </t>
   </si>
   <si>
@@ -2288,7 +2324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP87"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2297,9 +2333,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.41015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="24.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6205,7 +6241,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>311</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -6269,7 +6305,7 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -6314,13 +6350,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>310</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
@@ -6438,10 +6474,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6556,10 +6592,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6676,10 +6712,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6721,7 +6757,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
@@ -6798,10 +6834,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6918,10 +6954,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6961,7 +6997,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7038,10 +7074,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7158,10 +7194,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7280,21 +7316,23 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7306,19 +7344,19 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7367,13 +7405,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -7388,10 +7426,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7402,10 +7440,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7413,35 +7451,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7489,7 +7523,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>217</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7501,22 +7535,22 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>218</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7524,14 +7558,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7547,19 +7581,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>345</v>
+        <v>157</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7597,19 +7631,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7621,7 +7655,7 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7630,13 +7664,13 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7644,18 +7678,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
@@ -7670,26 +7704,26 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>241</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>80</v>
@@ -7731,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7746,19 +7780,19 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7766,24 +7800,24 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7792,20 +7826,18 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>252</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7853,7 +7885,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7862,25 +7894,25 @@
         <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7888,10 +7920,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7899,7 +7931,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -7914,24 +7946,24 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>80</v>
@@ -7973,7 +8005,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7994,13 +8026,13 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>376</v>
+        <v>264</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8008,10 +8040,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8022,7 +8054,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8034,17 +8066,17 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8081,23 +8113,25 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -8106,19 +8140,19 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8126,14 +8160,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8142,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8154,17 +8186,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>383</v>
+        <v>280</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8213,13 +8247,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -8228,19 +8262,19 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>387</v>
+        <v>283</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8248,14 +8282,12 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8264,7 +8296,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8276,17 +8308,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8335,13 +8369,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -8350,19 +8384,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8370,10 +8404,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8381,7 +8415,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>91</v>
@@ -8396,19 +8430,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8445,17 +8479,19 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8464,40 +8500,38 @@
         <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8506,10 +8540,10 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8518,20 +8552,18 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8579,16 +8611,16 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>103</v>
@@ -8597,38 +8629,38 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8637,19 +8669,23 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8697,7 +8733,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8709,22 +8745,22 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8732,44 +8768,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>154</v>
+        <v>371</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>372</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8805,46 +8843,46 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>224</v>
+        <v>370</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>218</v>
+        <v>381</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8852,10 +8890,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8863,13 +8901,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8878,20 +8916,18 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8939,7 +8975,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8960,13 +8996,13 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8974,10 +9010,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8988,36 +9024,34 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9037,37 +9071,35 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -9076,19 +9108,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9096,24 +9128,26 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
@@ -9122,17 +9156,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9181,13 +9215,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -9196,19 +9230,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9216,24 +9250,26 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9242,24 +9278,24 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>80</v>
@@ -9301,34 +9337,34 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9336,10 +9372,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9347,7 +9383,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
@@ -9362,19 +9398,19 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9399,31 +9435,29 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9432,7 +9466,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9441,29 +9475,31 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9481,22 +9517,22 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9521,13 +9557,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9545,7 +9581,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9554,7 +9590,7 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>468</v>
+        <v>414</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>103</v>
@@ -9563,38 +9599,38 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9606,20 +9642,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9643,13 +9675,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9667,49 +9699,49 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>470</v>
+        <v>217</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>480</v>
+        <v>218</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9728,20 +9760,18 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>483</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
+        <v>221</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9777,19 +9807,19 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9801,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9810,10 +9840,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>489</v>
+        <v>218</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9824,10 +9854,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9835,33 +9865,35 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9885,13 +9917,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9909,7 +9941,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9927,27 +9959,27 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9958,36 +9990,36 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="R64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10007,13 +10039,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>494</v>
+        <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -10031,7 +10063,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10052,10 +10084,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10066,10 +10098,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10077,33 +10109,33 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>511</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10151,7 +10183,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10169,27 +10201,27 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10197,39 +10229,39 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>520</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>80</v>
@@ -10271,7 +10303,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10280,7 +10312,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -10289,27 +10321,27 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>526</v>
+        <v>463</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10317,34 +10349,34 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10369,13 +10401,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10393,19 +10425,19 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10414,10 +10446,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>535</v>
+        <v>453</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>536</v>
+        <v>472</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10428,10 +10460,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10445,7 +10477,7 @@
         <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -10454,16 +10486,20 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10487,13 +10523,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10511,7 +10547,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>473</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10520,10 +10556,10 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10532,10 +10568,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>218</v>
+        <v>481</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10546,14 +10582,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>154</v>
+        <v>483</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10572,18 +10608,20 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>221</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>222</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10607,13 +10645,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10631,7 +10669,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>224</v>
+        <v>482</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10643,37 +10681,37 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10686,25 +10724,25 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>136</v>
+        <v>495</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>157</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>158</v>
+        <v>499</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10753,7 +10791,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10765,7 +10803,7 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10774,10 +10812,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10788,10 +10826,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10814,15 +10852,17 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>545</v>
+        <v>200</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10847,13 +10887,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10871,7 +10911,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10880,7 +10920,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -10889,27 +10929,27 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10932,16 +10972,20 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>200</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10965,13 +11009,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10989,7 +11033,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10998,7 +11042,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11010,10 +11054,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11024,10 +11068,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11050,20 +11094,18 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>200</v>
+        <v>523</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11087,13 +11129,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11111,7 +11153,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11129,27 +11171,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11160,7 +11202,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11172,20 +11214,18 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>200</v>
+        <v>532</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11209,13 +11249,13 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -11233,13 +11273,13 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -11251,27 +11291,27 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11282,7 +11322,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11294,17 +11334,19 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11353,19 +11395,19 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>546</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11374,10 +11416,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11388,10 +11430,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11417,10 +11459,10 @@
         <v>214</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>578</v>
+        <v>215</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>579</v>
+        <v>216</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11471,7 +11513,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11483,7 +11525,7 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11492,10 +11534,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>580</v>
+        <v>218</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11506,14 +11548,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11529,19 +11571,19 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>582</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>583</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>584</v>
+        <v>222</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>585</v>
+        <v>157</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11591,7 +11633,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>581</v>
+        <v>224</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11603,7 +11645,7 @@
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11612,10 +11654,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>587</v>
+        <v>218</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11626,14 +11668,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11646,24 +11688,26 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>589</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11711,7 +11755,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11723,7 +11767,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11732,10 +11776,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>593</v>
+        <v>134</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11746,10 +11790,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11760,32 +11804,28 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11833,19 +11873,19 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>598</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11854,10 +11894,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11868,10 +11908,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11894,13 +11934,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>557</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>565</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11951,7 +11991,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>563</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11960,10 +12000,10 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
@@ -11972,10 +12012,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>218</v>
+        <v>566</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11986,21 +12026,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12012,18 +12052,20 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>221</v>
+        <v>568</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>222</v>
+        <v>569</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12047,13 +12089,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12071,31 +12113,31 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>224</v>
+        <v>567</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>80</v>
+        <v>575</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12106,14 +12148,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12126,25 +12168,25 @@
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>157</v>
+        <v>579</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>158</v>
+        <v>580</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12169,13 +12211,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12193,7 +12235,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12205,19 +12247,19 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>80</v>
+        <v>575</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>134</v>
+        <v>492</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12228,10 +12270,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12239,34 +12281,32 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>200</v>
+        <v>584</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12291,13 +12331,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12315,10 +12355,10 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>91</v>
@@ -12333,16 +12373,16 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>609</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>305</v>
+        <v>588</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12350,10 +12390,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12367,29 +12407,25 @@
         <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>611</v>
+        <v>214</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12413,13 +12449,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>615</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12437,7 +12473,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12446,7 +12482,7 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -12455,27 +12491,27 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>404</v>
+        <v>561</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>405</v>
+        <v>592</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12486,32 +12522,30 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K85" t="s" s="2">
-        <v>200</v>
+        <v>594</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12535,13 +12569,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12559,16 +12593,16 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>103</v>
@@ -12580,10 +12614,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>134</v>
+        <v>598</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>469</v>
+        <v>599</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12594,14 +12628,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12617,23 +12651,21 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>200</v>
+        <v>601</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>472</v>
+        <v>602</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>473</v>
+        <v>603</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12657,13 +12689,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -12681,7 +12713,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12699,27 +12731,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>479</v>
+        <v>598</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>480</v>
+        <v>605</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12733,28 +12765,28 @@
         <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12803,7 +12835,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12815,29 +12847,999 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP87" t="s" s="2">
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP87">
+  <autoFilter ref="A1:AP95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12847,7 +13849,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -980,9 +980,6 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>value:code}
@@ -6241,7 +6238,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>311</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -6305,7 +6302,7 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -6350,13 +6347,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>310</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
@@ -6474,10 +6471,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6592,10 +6589,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6712,10 +6709,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6757,7 +6754,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
@@ -6834,10 +6831,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6954,10 +6951,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6997,7 +6994,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7074,10 +7071,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7194,10 +7191,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7316,20 +7313,20 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>310</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
@@ -7440,10 +7437,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7558,10 +7555,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7678,10 +7675,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7723,7 +7720,7 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>80</v>
@@ -7800,10 +7797,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7920,10 +7917,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7963,7 +7960,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>80</v>
@@ -8040,10 +8037,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8160,10 +8157,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8282,10 +8279,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8404,10 +8401,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8430,19 +8427,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8491,7 +8488,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8506,19 +8503,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8526,10 +8523,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8552,16 +8549,16 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8611,7 +8608,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8635,10 +8632,10 @@
         <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8646,14 +8643,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8672,19 +8669,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8733,7 +8730,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8748,19 +8745,19 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8768,14 +8765,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8794,19 +8791,19 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8855,7 +8852,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8864,25 +8861,25 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8890,10 +8887,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8916,16 +8913,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8975,7 +8972,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8996,13 +8993,13 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9010,10 +9007,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9036,17 +9033,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9083,7 +9080,7 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
@@ -9093,7 +9090,7 @@
         <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9108,19 +9105,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9128,13 +9125,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
@@ -9156,17 +9153,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9215,7 +9212,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9230,19 +9227,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9250,13 +9247,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
@@ -9278,17 +9275,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9337,7 +9334,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9352,19 +9349,19 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9372,10 +9369,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9398,19 +9395,19 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9447,17 +9444,17 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9466,7 +9463,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9475,30 +9472,30 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -9520,19 +9517,19 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9581,7 +9578,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9590,7 +9587,7 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>103</v>
@@ -9599,27 +9596,27 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9734,10 +9731,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9854,10 +9851,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9880,19 +9877,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9941,7 +9938,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9962,10 +9959,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9976,10 +9973,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10005,20 +10002,20 @@
         <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q64" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>80</v>
@@ -10042,28 +10039,28 @@
         <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Z64" t="s" s="2">
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10084,10 +10081,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10098,10 +10095,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10127,14 +10124,14 @@
         <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10183,7 +10180,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10204,10 +10201,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10218,10 +10215,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10247,63 +10244,63 @@
         <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10312,7 +10309,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -10324,10 +10321,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10338,10 +10335,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10367,16 +10364,16 @@
         <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10404,28 +10401,28 @@
         <v>192</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10446,10 +10443,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10460,10 +10457,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10489,16 +10486,16 @@
         <v>200</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10526,11 +10523,11 @@
         <v>299</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10547,7 +10544,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10556,7 +10553,7 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10571,7 +10568,7 @@
         <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10582,14 +10579,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10611,16 +10608,16 @@
         <v>200</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10648,11 +10645,11 @@
         <v>299</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10669,7 +10666,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10687,27 +10684,27 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10730,19 +10727,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10791,7 +10788,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10812,10 +10809,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10826,10 +10823,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10855,13 +10852,13 @@
         <v>200</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10887,14 +10884,14 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10911,7 +10908,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10929,27 +10926,27 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10975,16 +10972,16 @@
         <v>200</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11009,14 +11006,14 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11033,7 +11030,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11054,10 +11051,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11068,10 +11065,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11094,16 +11091,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11153,7 +11150,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11171,27 +11168,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11214,16 +11211,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11273,7 +11270,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11291,27 +11288,27 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>539</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11334,19 +11331,19 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11395,7 +11392,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11407,19 +11404,19 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11430,10 +11427,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11548,10 +11545,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11668,14 +11665,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11697,10 +11694,10 @@
         <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>157</v>
@@ -11755,7 +11752,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11790,10 +11787,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11816,13 +11813,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11873,7 +11870,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11882,7 +11879,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11894,10 +11891,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11908,10 +11905,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11934,13 +11931,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11991,7 +11988,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12000,7 +11997,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12012,10 +12009,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12026,10 +12023,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12055,16 +12052,16 @@
         <v>200</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12092,11 +12089,11 @@
         <v>115</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12113,7 +12110,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12131,13 +12128,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AM81" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN81" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12148,10 +12145,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12177,16 +12174,16 @@
         <v>200</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12211,14 +12208,14 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>582</v>
-      </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12235,7 +12232,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12253,13 +12250,13 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AM82" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN82" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12270,10 +12267,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12296,17 +12293,17 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12355,7 +12352,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12379,7 +12376,7 @@
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12390,10 +12387,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12419,10 +12416,10 @@
         <v>214</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12473,7 +12470,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12494,10 +12491,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12508,10 +12505,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12534,16 +12531,16 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12593,7 +12590,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12614,10 +12611,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12628,10 +12625,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12654,16 +12651,16 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12713,7 +12710,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12734,10 +12731,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12748,10 +12745,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12774,19 +12771,19 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12835,7 +12832,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12847,19 +12844,19 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12870,10 +12867,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12988,10 +12985,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13108,14 +13105,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13137,10 +13134,10 @@
         <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>157</v>
@@ -13195,7 +13192,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13230,10 +13227,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13259,16 +13256,16 @@
         <v>200</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13317,7 +13314,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>91</v>
@@ -13335,7 +13332,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>304</v>
@@ -13352,10 +13349,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13378,19 +13375,19 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>626</v>
-      </c>
       <c r="O92" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13418,11 +13415,11 @@
         <v>192</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13439,7 +13436,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13448,7 +13445,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13457,27 +13454,27 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13503,16 +13500,16 @@
         <v>200</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="N93" t="s" s="2">
-        <v>634</v>
-      </c>
       <c r="O93" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13540,11 +13537,11 @@
         <v>299</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13561,7 +13558,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13570,7 +13567,7 @@
         <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13585,7 +13582,7 @@
         <v>134</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13596,14 +13593,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13625,16 +13622,16 @@
         <v>200</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13662,11 +13659,11 @@
         <v>299</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13683,7 +13680,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13701,27 +13698,27 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13747,16 +13744,16 @@
         <v>81</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N95" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O95" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13805,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13826,10 +13823,10 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -489,10 +489,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Additional issues or factors that may impact for the measurement</t>
+  </si>
+  <si>
+    <t>Record any issues or factors that may impact on the measurement of body weight eg timing in menstrual cycle, timing of recent bowel motion or noting of amputation.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -592,7 +592,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1120,7 +1120,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension focusCode</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1178,7 +1178,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1217,7 +1217,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the `lastUpdated` time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1584,7 +1584,8 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1876,7 +1877,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see Notes below.  Note that a system may calculate results from QuestionnaireResponse into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1898,7 +1899,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see Notes below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1910,7 +1911,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -6003,7 +6004,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6485,7 +6486,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6845,7 +6846,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -7205,7 +7206,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -8293,7 +8294,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -9627,7 +9628,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9987,7 +9988,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -13413,7 +13413,7 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="Y92" t="s" s="2">
         <v>626</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -96,7 +96,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the body weight archetype: Kroppsvekt, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2273</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Body Weight information. To be used for recording the actual measurement of body weight, including when the individual is missing a body part due to a congenital cause or after surgical removal.</t>
+    <t>Domain profile for Norwegian Vital Signs Observation Body Weight information. To be used for recording the actual measurement of body weight, including when the individual is missing a body part due to a congenital cause or after surgical removal.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2355,17 +2355,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.41015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2374,28 +2374,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.5859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
